--- a/data/trans_orig/P78C_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P78C_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{23DD0A5E-7D40-4842-B423-F554C00CBE6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{58736904-E6A7-4607-9D4F-1B266DA7B14B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F760DFC3-014D-4C72-B3EA-9D272BE255F3}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E17472A0-4A8D-4A70-BDBB-5727B91F4BC0}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="244">
   <si>
     <t>Población con retrasos en pagos no resueltos en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -368,418 +368,406 @@
     <t>1,14%</t>
   </si>
   <si>
-    <t>5,5%</t>
+    <t>5,31%</t>
   </si>
   <si>
     <t>0,61%</t>
   </si>
   <si>
-    <t>3,15%</t>
+    <t>3,38%</t>
   </si>
   <si>
     <t>98,86%</t>
   </si>
   <si>
-    <t>94,5%</t>
+    <t>94,69%</t>
   </si>
   <si>
     <t>99,39%</t>
   </si>
   <si>
-    <t>96,85%</t>
+    <t>96,62%</t>
   </si>
   <si>
     <t>5,16%</t>
   </si>
   <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
   </si>
   <si>
     <t>1,73%</t>
   </si>
   <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
   </si>
   <si>
     <t>3,39%</t>
   </si>
   <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
   </si>
   <si>
     <t>94,84%</t>
   </si>
   <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
   </si>
   <si>
     <t>98,27%</t>
   </si>
   <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
   </si>
   <si>
     <t>96,61%</t>
   </si>
   <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
   </si>
   <si>
     <t>2,41%</t>
   </si>
   <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
   </si>
   <si>
     <t>2,65%</t>
   </si>
   <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
   </si>
   <si>
     <t>97,59%</t>
   </si>
   <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
   </si>
   <si>
     <t>97,35%</t>
   </si>
   <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
   </si>
   <si>
     <t>3,35%</t>
   </si>
   <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
     <t>1,64%</t>
   </si>
   <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
   </si>
   <si>
     <t>2,15%</t>
   </si>
   <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
   </si>
   <si>
     <t>97,85%</t>
   </si>
   <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
   </si>
   <si>
     <t>1,69%</t>
   </si>
   <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
   </si>
   <si>
     <t>98,31%</t>
   </si>
   <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
     <t>97,92%</t>
   </si>
   <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
     <t>97,87%</t>
   </si>
   <si>
-    <t>97,45%</t>
+    <t>97,46%</t>
   </si>
   <si>
     <t>98,25%</t>
@@ -1194,7 +1182,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7D13089-9929-46DB-975C-558BEBA157B9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1D93027-30F0-47BB-9254-A8D3B94651B5}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2636,7 +2624,7 @@
         <v>6511</v>
       </c>
       <c r="N29" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>17</v>
@@ -2687,7 +2675,7 @@
         <v>6511</v>
       </c>
       <c r="N30" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>19</v>
@@ -2725,7 +2713,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{451E8876-CD16-4F21-BFD2-A2CF0EC08462}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81BBDDB6-D59E-4EA8-A01C-0D97AC4DD5E6}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4238,7 +4226,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4694917-58F7-497B-B742-495558884AB9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38FCA9A6-AFD2-4122-81B3-D2F501732217}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5769,7 +5757,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B0B1336-9FA8-4861-8884-B6E57365B8E7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF4FF8B9-162B-43D8-A34E-8BDD602CE21C}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5899,7 +5887,7 @@
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -5947,7 +5935,7 @@
         <v>67</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>17</v>
@@ -6218,13 +6206,13 @@
         <v>10604</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M10" s="7">
         <v>21</v>
@@ -6233,13 +6221,13 @@
         <v>18380</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6254,13 +6242,13 @@
         <v>314464</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H11" s="7">
         <v>521</v>
@@ -6269,13 +6257,13 @@
         <v>361446</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M11" s="7">
         <v>873</v>
@@ -6284,13 +6272,13 @@
         <v>675910</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6358,13 +6346,13 @@
         <v>10600</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>153</v>
+        <v>119</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H13" s="7">
         <v>18</v>
@@ -6373,13 +6361,13 @@
         <v>15575</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="M13" s="7">
         <v>31</v>
@@ -6388,13 +6376,13 @@
         <v>26175</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6409,13 +6397,13 @@
         <v>305641</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>163</v>
+        <v>128</v>
       </c>
       <c r="H14" s="7">
         <v>576</v>
@@ -6424,13 +6412,13 @@
         <v>407639</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="M14" s="7">
         <v>852</v>
@@ -6439,13 +6427,13 @@
         <v>713281</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6513,13 +6501,13 @@
         <v>540</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -6528,13 +6516,13 @@
         <v>1621</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -6543,13 +6531,13 @@
         <v>2161</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6564,10 +6552,10 @@
         <v>194096</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>17</v>
@@ -6579,10 +6567,10 @@
         <v>253722</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>17</v>
@@ -6594,13 +6582,13 @@
         <v>447819</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6668,13 +6656,13 @@
         <v>5527</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>14</v>
+        <v>181</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="H19" s="7">
         <v>14</v>
@@ -6683,13 +6671,13 @@
         <v>9170</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="M19" s="7">
         <v>22</v>
@@ -6698,13 +6686,13 @@
         <v>14697</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6719,13 +6707,13 @@
         <v>271696</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>20</v>
+        <v>191</v>
       </c>
       <c r="H20" s="7">
         <v>445</v>
@@ -6734,13 +6722,13 @@
         <v>265746</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="M20" s="7">
         <v>808</v>
@@ -6749,13 +6737,13 @@
         <v>537442</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6823,13 +6811,13 @@
         <v>10061</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>153</v>
+        <v>198</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>200</v>
+        <v>14</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H22" s="7">
         <v>22</v>
@@ -6838,13 +6826,13 @@
         <v>18393</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="M22" s="7">
         <v>33</v>
@@ -6853,13 +6841,13 @@
         <v>28455</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6874,13 +6862,13 @@
         <v>602656</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>163</v>
+        <v>206</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>209</v>
+        <v>20</v>
       </c>
       <c r="H23" s="7">
         <v>925</v>
@@ -6889,13 +6877,13 @@
         <v>774973</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="M23" s="7">
         <v>1500</v>
@@ -6904,13 +6892,13 @@
         <v>1377628</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6978,13 +6966,13 @@
         <v>12084</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="H25" s="7">
         <v>13</v>
@@ -6993,13 +6981,13 @@
         <v>10654</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>89</v>
+        <v>215</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="M25" s="7">
         <v>24</v>
@@ -7008,13 +6996,13 @@
         <v>22739</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7029,13 +7017,13 @@
         <v>835459</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="H26" s="7">
         <v>1033</v>
@@ -7044,13 +7032,13 @@
         <v>839331</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>91</v>
+        <v>224</v>
       </c>
       <c r="M26" s="7">
         <v>1777</v>
@@ -7059,13 +7047,13 @@
         <v>1674789</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7133,13 +7121,13 @@
         <v>73167</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="H28" s="7">
         <v>96</v>
@@ -7148,13 +7136,13 @@
         <v>78608</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>235</v>
+        <v>187</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>236</v>
+        <v>169</v>
       </c>
       <c r="M28" s="7">
         <v>164</v>
@@ -7163,13 +7151,13 @@
         <v>151775</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7184,13 +7172,13 @@
         <v>3267279</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>182</v>
+        <v>239</v>
       </c>
       <c r="H29" s="7">
         <v>5223</v>
@@ -7199,13 +7187,13 @@
         <v>3709578</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>243</v>
+        <v>176</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>244</v>
+        <v>197</v>
       </c>
       <c r="M29" s="7">
         <v>8499</v>
@@ -7214,13 +7202,13 @@
         <v>6976857</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P78C_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P78C_R-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{58736904-E6A7-4607-9D4F-1B266DA7B14B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{56361D7A-1BAC-4CEF-A936-FA5227C5677E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E17472A0-4A8D-4A70-BDBB-5727B91F4BC0}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{01B52D92-0615-40D7-B22F-C55AB4C4136E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -305,7 +305,7 @@
     <t>99,75%</t>
   </si>
   <si>
-    <t>Población con retrasos en pagos no resueltos en 2015 (Tasa respuesta: 100,0%)</t>
+    <t>Población con retrasos en pagos no resueltos en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>0,69%</t>
@@ -1182,7 +1182,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1D93027-30F0-47BB-9254-A8D3B94651B5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6B5CE9B-5148-47D2-A678-6E84D33DA35A}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2594,7 +2594,7 @@
         <v>3214</v>
       </c>
       <c r="D29" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>17</v>
@@ -2645,7 +2645,7 @@
         <v>3214</v>
       </c>
       <c r="D30" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>19</v>
@@ -2713,7 +2713,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81BBDDB6-D59E-4EA8-A01C-0D97AC4DD5E6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2262F1DD-50D3-4320-AAEE-33D56574D63A}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4226,7 +4226,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38FCA9A6-AFD2-4122-81B3-D2F501732217}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD7D2660-09DB-481A-8B89-357B6D36FAC5}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5757,7 +5757,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF4FF8B9-162B-43D8-A34E-8BDD602CE21C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B6EECDB-2AB1-4C24-B70E-A8E5F0E5FF3A}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P78C_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P78C_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{362AAAF3-0446-4633-BCC2-850C8448DE13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5BD7BE6-B7A7-4944-A622-757E9D2C250D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1895350F-BB7E-4C59-B0B3-400B9F09D0CF}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{A70EEFB5-09EB-4775-9B27-E4143609F333}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="268">
   <si>
     <t>Población con retrasos en pagos no resueltos en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -257,7 +257,16 @@
     <t>Población con retrasos en pagos no resueltos en 2012 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
   </si>
   <si>
     <t>99,6%</t>
@@ -272,39 +281,51 @@
     <t>0,6%</t>
   </si>
   <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
     <t>99,85%</t>
   </si>
   <si>
     <t>0,15%</t>
   </si>
   <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
     <t>99,75%</t>
   </si>
   <si>
-    <t>0,27%</t>
-  </si>
-  <si>
     <t>0,25%</t>
   </si>
   <si>
@@ -371,412 +392,457 @@
     <t>0,22%</t>
   </si>
   <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>99,95%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
   </si>
   <si>
     <t>2,76%</t>
   </si>
   <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
   </si>
   <si>
     <t>97,24%</t>
   </si>
   <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
   </si>
 </sst>
 </file>
@@ -1188,7 +1254,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1898D2A1-8C14-4028-B301-80097D5DCE9F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{018B488A-65F4-4B36-9E42-54D30E749CC1}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2957,7 +3023,7 @@
         <v>3214</v>
       </c>
       <c r="D36" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>11</v>
@@ -2972,7 +3038,7 @@
         <v>3297</v>
       </c>
       <c r="I36" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J36" s="7" t="s">
         <v>11</v>
@@ -2987,7 +3053,7 @@
         <v>6511</v>
       </c>
       <c r="N36" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O36" s="7" t="s">
         <v>11</v>
@@ -3110,7 +3176,7 @@
         <v>3214</v>
       </c>
       <c r="D39" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>13</v>
@@ -3125,7 +3191,7 @@
         <v>3297</v>
       </c>
       <c r="I39" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>13</v>
@@ -3140,7 +3206,7 @@
         <v>6511</v>
       </c>
       <c r="N39" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>13</v>
@@ -3178,7 +3244,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B45062B5-70D7-4C64-A166-78DEE3D00C83}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65FA50BD-F512-47ED-A864-C3E4B6E73A17}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3296,43 +3362,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>282</v>
+      </c>
+      <c r="D4" s="7">
+        <v>294738</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>72</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>256</v>
+      </c>
+      <c r="I4" s="7">
+        <v>287245</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>538</v>
+      </c>
+      <c r="N4" s="7">
+        <v>581983</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3343,41 +3415,47 @@
       <c r="C5" s="7">
         <v>0</v>
       </c>
-      <c r="D5" s="7"/>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
-      <c r="I5" s="7"/>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
-      <c r="N5" s="7"/>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3388,41 +3466,47 @@
       <c r="C6" s="7">
         <v>0</v>
       </c>
-      <c r="D6" s="7"/>
+      <c r="D6" s="7">
+        <v>0</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
-      <c r="I6" s="7"/>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
-      <c r="N6" s="7"/>
+      <c r="N6" s="7">
+        <v>0</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3431,43 +3515,49 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7"/>
+        <v>282</v>
+      </c>
+      <c r="D7" s="7">
+        <v>294738</v>
+      </c>
       <c r="E7" s="7" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7"/>
+        <v>256</v>
+      </c>
+      <c r="I7" s="7">
+        <v>287245</v>
+      </c>
       <c r="J7" s="7" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7"/>
+        <v>538</v>
+      </c>
+      <c r="N7" s="7">
+        <v>581983</v>
+      </c>
       <c r="O7" s="7" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3502,7 +3592,7 @@
         <v>11</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>13</v>
@@ -3556,7 +3646,7 @@
         <v>18</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -3607,7 +3697,7 @@
         <v>18</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -3693,7 +3783,7 @@
         <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>13</v>
@@ -3708,7 +3798,7 @@
         <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>13</v>
@@ -3747,7 +3837,7 @@
         <v>18</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3762,7 +3852,7 @@
         <v>18</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -3798,7 +3888,7 @@
         <v>18</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -3813,7 +3903,7 @@
         <v>18</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -3890,46 +3980,46 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>626</v>
+        <v>344</v>
       </c>
       <c r="D16" s="7">
-        <v>668720</v>
+        <v>373982</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H16" s="7">
-        <v>627</v>
+        <v>371</v>
       </c>
       <c r="I16" s="7">
-        <v>676196</v>
+        <v>388951</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M16" s="7">
-        <v>1253</v>
+        <v>715</v>
       </c>
       <c r="N16" s="7">
-        <v>1344916</v>
+        <v>762933</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>13</v>
@@ -3953,7 +4043,7 @@
         <v>18</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -3968,7 +4058,7 @@
         <v>18</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -3983,7 +4073,7 @@
         <v>18</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4004,7 +4094,7 @@
         <v>18</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -4019,7 +4109,7 @@
         <v>18</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -4034,7 +4124,7 @@
         <v>18</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4043,10 +4133,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>626</v>
+        <v>344</v>
       </c>
       <c r="D19" s="7">
-        <v>668720</v>
+        <v>373982</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>13</v>
@@ -4058,10 +4148,10 @@
         <v>13</v>
       </c>
       <c r="H19" s="7">
-        <v>627</v>
+        <v>371</v>
       </c>
       <c r="I19" s="7">
-        <v>676196</v>
+        <v>388951</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>13</v>
@@ -4073,10 +4163,10 @@
         <v>13</v>
       </c>
       <c r="M19" s="7">
-        <v>1253</v>
+        <v>715</v>
       </c>
       <c r="N19" s="7">
-        <v>1344916</v>
+        <v>762933</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>13</v>
@@ -4105,7 +4195,7 @@
         <v>11</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>13</v>
@@ -4120,7 +4210,7 @@
         <v>11</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>13</v>
@@ -4159,7 +4249,7 @@
         <v>18</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -4174,7 +4264,7 @@
         <v>18</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -4210,7 +4300,7 @@
         <v>18</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -4225,7 +4315,7 @@
         <v>18</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -4311,7 +4401,7 @@
         <v>11</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>13</v>
@@ -4365,7 +4455,7 @@
         <v>18</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -4416,7 +4506,7 @@
         <v>18</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -4547,7 +4637,7 @@
         <v>11</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>13</v>
@@ -4601,7 +4691,7 @@
         <v>18</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4652,7 +4742,7 @@
         <v>18</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4723,7 +4813,7 @@
         <v>11</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>13</v>
@@ -4738,7 +4828,7 @@
         <v>11</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>13</v>
@@ -4777,7 +4867,7 @@
         <v>18</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -4792,7 +4882,7 @@
         <v>18</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="M33" s="7">
         <v>0</v>
@@ -4828,7 +4918,7 @@
         <v>18</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -4843,7 +4933,7 @@
         <v>18</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -5144,7 +5234,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4FFD88F-6638-44D4-BE54-C1826BCB6EBF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AFCBC34-9AC2-4EF0-B27C-E66EC7EE821E}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5161,7 +5251,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5286,7 +5376,7 @@
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
@@ -5301,7 +5391,7 @@
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -5340,7 +5430,7 @@
         <v>18</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -5355,7 +5445,7 @@
         <v>18</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5391,7 +5481,7 @@
         <v>18</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -5406,7 +5496,7 @@
         <v>18</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5477,7 +5567,7 @@
         <v>11</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>13</v>
@@ -5492,7 +5582,7 @@
         <v>11</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>13</v>
@@ -5531,7 +5621,7 @@
         <v>18</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -5546,7 +5636,7 @@
         <v>18</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -5582,7 +5672,7 @@
         <v>18</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -5597,7 +5687,7 @@
         <v>18</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -5698,7 +5788,7 @@
         <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>13</v>
@@ -5713,7 +5803,7 @@
         <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>13</v>
@@ -5752,7 +5842,7 @@
         <v>18</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -5767,7 +5857,7 @@
         <v>18</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5803,7 +5893,7 @@
         <v>18</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -5818,7 +5908,7 @@
         <v>18</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5889,7 +5979,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>13</v>
@@ -5919,7 +6009,7 @@
         <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>13</v>
@@ -5943,7 +6033,7 @@
         <v>18</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -5973,7 +6063,7 @@
         <v>18</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5994,7 +6084,7 @@
         <v>18</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -6024,7 +6114,7 @@
         <v>18</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6095,7 +6185,7 @@
         <v>11</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>13</v>
@@ -6110,7 +6200,7 @@
         <v>11</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>13</v>
@@ -6125,7 +6215,7 @@
         <v>11</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>13</v>
@@ -6149,7 +6239,7 @@
         <v>18</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -6164,7 +6254,7 @@
         <v>18</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -6179,7 +6269,7 @@
         <v>18</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6200,7 +6290,7 @@
         <v>18</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -6215,7 +6305,7 @@
         <v>18</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -6230,7 +6320,7 @@
         <v>18</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6301,7 +6391,7 @@
         <v>11</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>13</v>
@@ -6316,7 +6406,7 @@
         <v>11</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>13</v>
@@ -6355,7 +6445,7 @@
         <v>18</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -6370,7 +6460,7 @@
         <v>18</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -6406,7 +6496,7 @@
         <v>18</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -6421,7 +6511,7 @@
         <v>18</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -6507,7 +6597,7 @@
         <v>11</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>13</v>
@@ -6561,7 +6651,7 @@
         <v>18</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -6612,7 +6702,7 @@
         <v>18</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -6728,7 +6818,7 @@
         <v>11</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>13</v>
@@ -6782,7 +6872,7 @@
         <v>18</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="M33" s="7">
         <v>0</v>
@@ -6833,7 +6923,7 @@
         <v>18</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -7134,7 +7224,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B995460-E428-43AA-9613-B6B7E225399B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC1930DD-638C-4C95-B814-29AD91F6D258}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7151,7 +7241,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7264,7 +7354,7 @@
         <v>18</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -7294,7 +7384,7 @@
         <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7306,46 +7396,46 @@
         <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>68</v>
+        <v>117</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
       </c>
       <c r="I5" s="7">
-        <v>3083</v>
+        <v>5111</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
       </c>
       <c r="N5" s="7">
-        <v>3242</v>
+        <v>5278</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>69</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7357,13 +7447,13 @@
         <v>330</v>
       </c>
       <c r="D6" s="7">
-        <v>260139</v>
+        <v>311276</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>66</v>
+        <v>122</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>11</v>
@@ -7372,13 +7462,13 @@
         <v>536</v>
       </c>
       <c r="I6" s="7">
-        <v>268320</v>
+        <v>284524</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>11</v>
@@ -7387,13 +7477,13 @@
         <v>866</v>
       </c>
       <c r="N6" s="7">
-        <v>528458</v>
+        <v>595799</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>67</v>
@@ -7408,7 +7498,7 @@
         <v>331</v>
       </c>
       <c r="D7" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>13</v>
@@ -7423,7 +7513,7 @@
         <v>538</v>
       </c>
       <c r="I7" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>13</v>
@@ -7438,7 +7528,7 @@
         <v>869</v>
       </c>
       <c r="N7" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>13</v>
@@ -7485,7 +7575,7 @@
         <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -7500,7 +7590,7 @@
         <v>18</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7512,46 +7602,46 @@
         <v>15</v>
       </c>
       <c r="D9" s="7">
-        <v>26420</v>
+        <v>27262</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="H9" s="7">
         <v>12</v>
       </c>
       <c r="I9" s="7">
-        <v>9507</v>
+        <v>8834</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="M9" s="7">
         <v>27</v>
       </c>
       <c r="N9" s="7">
-        <v>35927</v>
+        <v>36096</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7563,46 +7653,46 @@
         <v>367</v>
       </c>
       <c r="D10" s="7">
-        <v>492877</v>
+        <v>491128</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="H10" s="7">
         <v>705</v>
       </c>
       <c r="I10" s="7">
-        <v>545059</v>
+        <v>506135</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="M10" s="7">
         <v>1072</v>
       </c>
       <c r="N10" s="7">
-        <v>1037937</v>
+        <v>997263</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7614,7 +7704,7 @@
         <v>382</v>
       </c>
       <c r="D11" s="7">
-        <v>519297</v>
+        <v>518390</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>13</v>
@@ -7629,7 +7719,7 @@
         <v>717</v>
       </c>
       <c r="I11" s="7">
-        <v>554566</v>
+        <v>514969</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>13</v>
@@ -7644,7 +7734,7 @@
         <v>1099</v>
       </c>
       <c r="N11" s="7">
-        <v>1073864</v>
+        <v>1033359</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>13</v>
@@ -7706,7 +7796,7 @@
         <v>18</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7718,46 +7808,46 @@
         <v>8</v>
       </c>
       <c r="D13" s="7">
-        <v>7776</v>
+        <v>7685</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="H13" s="7">
         <v>13</v>
       </c>
       <c r="I13" s="7">
-        <v>10604</v>
+        <v>9987</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="M13" s="7">
         <v>21</v>
       </c>
       <c r="N13" s="7">
-        <v>18380</v>
+        <v>17671</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7769,46 +7859,46 @@
         <v>352</v>
       </c>
       <c r="D14" s="7">
-        <v>314464</v>
+        <v>308365</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>133</v>
+        <v>158</v>
       </c>
       <c r="H14" s="7">
         <v>523</v>
       </c>
       <c r="I14" s="7">
-        <v>362680</v>
+        <v>339141</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="M14" s="7">
         <v>875</v>
       </c>
       <c r="N14" s="7">
-        <v>677144</v>
+        <v>647507</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7820,7 +7910,7 @@
         <v>360</v>
       </c>
       <c r="D15" s="7">
-        <v>322240</v>
+        <v>316050</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>13</v>
@@ -7835,7 +7925,7 @@
         <v>536</v>
       </c>
       <c r="I15" s="7">
-        <v>373284</v>
+        <v>349128</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -7850,7 +7940,7 @@
         <v>896</v>
       </c>
       <c r="N15" s="7">
-        <v>695524</v>
+        <v>665178</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>13</v>
@@ -7882,7 +7972,7 @@
         <v>18</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -7912,7 +8002,7 @@
         <v>18</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7924,46 +8014,46 @@
         <v>13</v>
       </c>
       <c r="D17" s="7">
-        <v>10600</v>
+        <v>10170</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="H17" s="7">
         <v>18</v>
       </c>
       <c r="I17" s="7">
-        <v>15575</v>
+        <v>14502</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="M17" s="7">
         <v>31</v>
       </c>
       <c r="N17" s="7">
-        <v>26175</v>
+        <v>24672</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7975,46 +8065,46 @@
         <v>279</v>
       </c>
       <c r="D18" s="7">
-        <v>311640</v>
+        <v>302387</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="H18" s="7">
         <v>581</v>
       </c>
       <c r="I18" s="7">
-        <v>412981</v>
+        <v>461216</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="M18" s="7">
         <v>860</v>
       </c>
       <c r="N18" s="7">
-        <v>724621</v>
+        <v>763602</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8026,7 +8116,7 @@
         <v>292</v>
       </c>
       <c r="D19" s="7">
-        <v>322240</v>
+        <v>312557</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>13</v>
@@ -8041,7 +8131,7 @@
         <v>599</v>
       </c>
       <c r="I19" s="7">
-        <v>428556</v>
+        <v>475718</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>13</v>
@@ -8056,7 +8146,7 @@
         <v>891</v>
       </c>
       <c r="N19" s="7">
-        <v>750796</v>
+        <v>788274</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>13</v>
@@ -8088,7 +8178,7 @@
         <v>18</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -8103,7 +8193,7 @@
         <v>18</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -8118,7 +8208,7 @@
         <v>18</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8130,46 +8220,46 @@
         <v>1</v>
       </c>
       <c r="D21" s="7">
-        <v>540</v>
+        <v>492</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>87</v>
+        <v>185</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="H21" s="7">
         <v>2</v>
       </c>
       <c r="I21" s="7">
-        <v>1621</v>
+        <v>1387</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>34</v>
+        <v>106</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="M21" s="7">
         <v>3</v>
       </c>
       <c r="N21" s="7">
-        <v>2161</v>
+        <v>1879</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>50</v>
+        <v>188</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8181,13 +8271,13 @@
         <v>278</v>
       </c>
       <c r="D22" s="7">
-        <v>196208</v>
+        <v>178250</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>85</v>
+        <v>190</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>11</v>
@@ -8196,13 +8286,13 @@
         <v>493</v>
       </c>
       <c r="I22" s="7">
-        <v>257892</v>
+        <v>257392</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>31</v>
+        <v>105</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>11</v>
@@ -8211,16 +8301,16 @@
         <v>771</v>
       </c>
       <c r="N22" s="7">
-        <v>454099</v>
+        <v>435642</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>47</v>
+        <v>193</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>180</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8232,7 +8322,7 @@
         <v>279</v>
       </c>
       <c r="D23" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>13</v>
@@ -8247,7 +8337,7 @@
         <v>495</v>
       </c>
       <c r="I23" s="7">
-        <v>259513</v>
+        <v>258779</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>13</v>
@@ -8262,7 +8352,7 @@
         <v>774</v>
       </c>
       <c r="N23" s="7">
-        <v>456260</v>
+        <v>437521</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>13</v>
@@ -8294,7 +8384,7 @@
         <v>18</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>182</v>
+        <v>84</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -8309,7 +8399,7 @@
         <v>18</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -8324,7 +8414,7 @@
         <v>18</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8336,46 +8426,46 @@
         <v>8</v>
       </c>
       <c r="D25" s="7">
-        <v>5527</v>
+        <v>5365</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>20</v>
+        <v>198</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="H25" s="7">
         <v>14</v>
       </c>
       <c r="I25" s="7">
-        <v>9170</v>
+        <v>8412</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="M25" s="7">
         <v>22</v>
       </c>
       <c r="N25" s="7">
-        <v>14697</v>
+        <v>13778</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8387,46 +8477,46 @@
         <v>363</v>
       </c>
       <c r="D26" s="7">
-        <v>271696</v>
+        <v>264271</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>14</v>
+        <v>208</v>
       </c>
       <c r="H26" s="7">
         <v>446</v>
       </c>
       <c r="I26" s="7">
-        <v>266452</v>
+        <v>248644</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="M26" s="7">
         <v>809</v>
       </c>
       <c r="N26" s="7">
-        <v>538148</v>
+        <v>512914</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8438,7 +8528,7 @@
         <v>371</v>
       </c>
       <c r="D27" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>13</v>
@@ -8453,7 +8543,7 @@
         <v>460</v>
       </c>
       <c r="I27" s="7">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>13</v>
@@ -8468,7 +8558,7 @@
         <v>831</v>
       </c>
       <c r="N27" s="7">
-        <v>552845</v>
+        <v>526692</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>13</v>
@@ -8530,7 +8620,7 @@
         <v>18</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8542,46 +8632,46 @@
         <v>11</v>
       </c>
       <c r="D29" s="7">
-        <v>10061</v>
+        <v>9734</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>124</v>
+        <v>218</v>
       </c>
       <c r="H29" s="7">
         <v>22</v>
       </c>
       <c r="I29" s="7">
-        <v>18393</v>
+        <v>17090</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="M29" s="7">
         <v>33</v>
       </c>
       <c r="N29" s="7">
-        <v>28455</v>
+        <v>26824</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>185</v>
+        <v>222</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8593,46 +8683,46 @@
         <v>588</v>
       </c>
       <c r="D30" s="7">
-        <v>617693</v>
+        <v>614545</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>132</v>
+        <v>226</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>209</v>
+        <v>227</v>
       </c>
       <c r="H30" s="7">
         <v>938</v>
       </c>
       <c r="I30" s="7">
-        <v>785810</v>
+        <v>832175</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>211</v>
+        <v>229</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>212</v>
+        <v>230</v>
       </c>
       <c r="M30" s="7">
         <v>1526</v>
       </c>
       <c r="N30" s="7">
-        <v>1403502</v>
+        <v>1446720</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>193</v>
+        <v>231</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8644,7 +8734,7 @@
         <v>599</v>
       </c>
       <c r="D31" s="7">
-        <v>627754</v>
+        <v>624279</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>13</v>
@@ -8659,7 +8749,7 @@
         <v>960</v>
       </c>
       <c r="I31" s="7">
-        <v>804203</v>
+        <v>849265</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>13</v>
@@ -8674,7 +8764,7 @@
         <v>1559</v>
       </c>
       <c r="N31" s="7">
-        <v>1431957</v>
+        <v>1473544</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>13</v>
@@ -8706,7 +8796,7 @@
         <v>18</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -8721,7 +8811,7 @@
         <v>18</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -8736,7 +8826,7 @@
         <v>18</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8748,46 +8838,46 @@
         <v>11</v>
       </c>
       <c r="D33" s="7">
-        <v>12084</v>
+        <v>10279</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="H33" s="7">
         <v>13</v>
       </c>
       <c r="I33" s="7">
-        <v>10654</v>
+        <v>8876</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>205</v>
+        <v>238</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>34</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="M33" s="7">
         <v>24</v>
       </c>
       <c r="N33" s="7">
-        <v>22739</v>
+        <v>19155</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>102</v>
+        <v>241</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>220</v>
+        <v>242</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -8799,28 +8889,28 @@
         <v>751</v>
       </c>
       <c r="D34" s="7">
-        <v>847344</v>
+        <v>918441</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>221</v>
+        <v>243</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="H34" s="7">
         <v>1049</v>
       </c>
       <c r="I34" s="7">
-        <v>857780</v>
+        <v>708855</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>212</v>
+        <v>245</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>223</v>
+        <v>246</v>
       </c>
       <c r="L34" s="7" t="s">
         <v>31</v>
@@ -8829,16 +8919,16 @@
         <v>1800</v>
       </c>
       <c r="N34" s="7">
-        <v>1705123</v>
+        <v>1627297</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>224</v>
+        <v>247</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>225</v>
+        <v>248</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>100</v>
+        <v>249</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8850,7 +8940,7 @@
         <v>762</v>
       </c>
       <c r="D35" s="7">
-        <v>859428</v>
+        <v>928720</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>13</v>
@@ -8865,7 +8955,7 @@
         <v>1062</v>
       </c>
       <c r="I35" s="7">
-        <v>868434</v>
+        <v>717731</v>
       </c>
       <c r="J35" s="7" t="s">
         <v>13</v>
@@ -8880,7 +8970,7 @@
         <v>1824</v>
       </c>
       <c r="N35" s="7">
-        <v>1727862</v>
+        <v>1646452</v>
       </c>
       <c r="O35" s="7" t="s">
         <v>13</v>
@@ -8927,7 +9017,7 @@
         <v>18</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>226</v>
+        <v>250</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -8942,7 +9032,7 @@
         <v>18</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>227</v>
+        <v>251</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8954,46 +9044,46 @@
         <v>68</v>
       </c>
       <c r="D37" s="7">
-        <v>73167</v>
+        <v>71153</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>228</v>
+        <v>252</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>229</v>
+        <v>253</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>230</v>
+        <v>254</v>
       </c>
       <c r="H37" s="7">
         <v>96</v>
       </c>
       <c r="I37" s="7">
-        <v>78608</v>
+        <v>74199</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>232</v>
+        <v>256</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>233</v>
+        <v>153</v>
       </c>
       <c r="M37" s="7">
         <v>164</v>
       </c>
       <c r="N37" s="7">
-        <v>151775</v>
+        <v>145352</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -9005,46 +9095,46 @@
         <v>3308</v>
       </c>
       <c r="D38" s="7">
-        <v>3312061</v>
+        <v>3388664</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>237</v>
+        <v>260</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>238</v>
+        <v>261</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>239</v>
+        <v>262</v>
       </c>
       <c r="H38" s="7">
         <v>5271</v>
       </c>
       <c r="I38" s="7">
-        <v>3756973</v>
+        <v>3638081</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>240</v>
+        <v>263</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>241</v>
+        <v>162</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>242</v>
+        <v>264</v>
       </c>
       <c r="M38" s="7">
         <v>8579</v>
       </c>
       <c r="N38" s="7">
-        <v>7069034</v>
+        <v>7026745</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>243</v>
+        <v>265</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>244</v>
+        <v>266</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -9056,7 +9146,7 @@
         <v>3376</v>
       </c>
       <c r="D39" s="7">
-        <v>3385228</v>
+        <v>3459817</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>13</v>
@@ -9071,7 +9161,7 @@
         <v>5367</v>
       </c>
       <c r="I39" s="7">
-        <v>3835581</v>
+        <v>3712280</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>13</v>
@@ -9086,7 +9176,7 @@
         <v>8743</v>
       </c>
       <c r="N39" s="7">
-        <v>7220809</v>
+        <v>7172097</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>13</v>
